--- a/data/sklearn/Noisy Moons.xlsx
+++ b/data/sklearn/Noisy Moons.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,16 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6277053205677017</v>
+        <v>1.045040785951104</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1203541851256874</v>
+        <v>0.1898337216932613</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.746657192323071</v>
+        <v>-1.018672464945512</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2044536701707181</v>
+        <v>0.1478614574920971</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3044693180685916</v>
+        <v>0.2348270365934551</v>
       </c>
       <c r="B4" t="n">
-        <v>1.603882318345492</v>
+        <v>1.050363486295671</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5551668370043936</v>
+        <v>0.01692947925507398</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03861090840337707</v>
+        <v>0.2691698187073172</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.550823381139924</v>
+        <v>0.9782176802583828</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1172320191323527</v>
+        <v>0.1913919283324811</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4657039386216178</v>
+        <v>0.9042348236051698</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1392072294388862</v>
+        <v>0.3193753028658319</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.672074119036419</v>
+        <v>1.952769793851769</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04163386989294263</v>
+        <v>0.2706785144887724</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5153293149836804</v>
+        <v>0.05155486675621718</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.09992821592899219</v>
+        <v>0.2000278884616962</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.4527274891155209</v>
+        <v>0.1059661947960758</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2348412651076797</v>
+        <v>0.1326956551991438</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1385693920671804</v>
+        <v>0.3790214777342254</v>
       </c>
       <c r="B11" t="n">
-        <v>1.405008898448691</v>
+        <v>0.9511099924362475</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.508737743599219</v>
+        <v>1.810803501630964</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7668963741583168</v>
+        <v>-0.132841732986947</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.364449774529594</v>
+        <v>0.1826941115993297</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6987224187186838</v>
+        <v>-0.09881756187794966</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.011911889447991</v>
+        <v>-0.3800574222361071</v>
       </c>
       <c r="B14" t="n">
-        <v>1.261022012745188</v>
+        <v>0.8792492003634503</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6208404740395825</v>
+        <v>1.039074100296098</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4170068832498575</v>
+        <v>0.0417806698227418</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.7116799161449253</v>
+        <v>-0.1191062413256465</v>
       </c>
       <c r="B16" t="n">
-        <v>1.547809297697746</v>
+        <v>1.022378634356038</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.732385705024924</v>
+        <v>-1.006268184938862</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2075100066770984</v>
+        <v>0.1463361049496317</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.548263311635663</v>
+        <v>1.845157749587278</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1835478701674873</v>
+        <v>0.1582950976101367</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.341501882561066</v>
+        <v>-0.6665255720900494</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9595348787138988</v>
+        <v>0.7287833843594934</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4714053906601174</v>
+        <v>0.9091903272644983</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01318075982789264</v>
+        <v>0.2433216986949539</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1390265110089256</v>
+        <v>0.3786241658611674</v>
       </c>
       <c r="B21" t="n">
-        <v>1.183764417213787</v>
+        <v>0.8406915776924628</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2264766921283471</v>
+        <v>0.696306827823851</v>
       </c>
       <c r="B22" t="n">
-        <v>1.129531966678291</v>
+        <v>0.8136253151471738</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.5427883970128484</v>
+        <v>0.0276883884348177</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1275449973295966</v>
+        <v>0.1862449402699051</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.735128720005218</v>
+        <v>-1.008652318082603</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1662562088110157</v>
+        <v>0.1669249980018249</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.688755282318739</v>
+        <v>1.967268480349384</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1314859925758051</v>
+        <v>0.3155217977771446</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.763530469373255</v>
+        <v>-1.033338130043179</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3325262772633563</v>
+        <v>0.08394314337940258</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.1476027092533</v>
+        <v>1.49691749993727</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.365704545263022</v>
+        <v>-0.4316941546155119</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.2414857792865427</v>
+        <v>0.2895701362116448</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.7557410279205407</v>
+        <v>-0.1272743369523969</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.627746719653782</v>
+        <v>1.914241961228452</v>
       </c>
       <c r="B29" t="n">
-        <v>0.373039624614229</v>
+        <v>0.4360760777140422</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.005189438435338</v>
+        <v>1.37313684197332</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.303089793843092</v>
+        <v>-0.4004444639892218</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.028508976006511</v>
+        <v>1.393405372338475</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.367920280391164</v>
+        <v>-0.4327999808895774</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.321162730846042</v>
+        <v>-0.6488474893716745</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9808813911939643</v>
+        <v>0.7394369747008258</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.414347040900541</v>
+        <v>0.1393251444621792</v>
       </c>
       <c r="B33" t="n">
-        <v>1.418065719944978</v>
+        <v>0.957626374328196</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1.664669710586137</v>
+        <v>-0.9474117995881577</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2803026135657236</v>
+        <v>0.1100068631405417</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.277652694039222</v>
+        <v>-0.6110300798490178</v>
       </c>
       <c r="B35" t="n">
-        <v>1.124151418401755</v>
+        <v>0.8109399979458977</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5528268409676965</v>
+        <v>0.9799590178055207</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1750354970272658</v>
+        <v>0.1625434419873819</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.589538708738485</v>
+        <v>1.881032888061145</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4371241478260522</v>
+        <v>0.03174057096429272</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.731229544258879</v>
+        <v>2.004185630410519</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.2600369284078712</v>
+        <v>0.1201210355544103</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1036763330984933</v>
+        <v>0.589573030112301</v>
       </c>
       <c r="B39" t="n">
-        <v>1.190876879005787</v>
+        <v>0.8442412560917381</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.5304298952628144</v>
+        <v>0.03842996798903797</v>
       </c>
       <c r="B40" t="n">
-        <v>1.475742319637892</v>
+        <v>0.9864115384613602</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.6779283670669731</v>
+        <v>-0.0897705696696554</v>
       </c>
       <c r="B41" t="n">
-        <v>1.544894668296814</v>
+        <v>1.020924004815811</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.812933581979308</v>
+        <v>2.075199936094666</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3991120538438471</v>
+        <v>0.4490882725854584</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.4642718814876801</v>
+        <v>0.09593221077610059</v>
       </c>
       <c r="B43" t="n">
-        <v>1.429168812355574</v>
+        <v>0.963167691589032</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.685326253201535</v>
+        <v>-0.9653657474295964</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1199276632607529</v>
+        <v>0.1900465896839871</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4096991606718574</v>
+        <v>0.8555574199901135</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.615383913114186</v>
+        <v>-0.556303816463233</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2058273032119059</v>
+        <v>0.6783590977285444</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.497245011311896</v>
+        <v>-0.4973432033723669</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.08319647052691968</v>
+        <v>0.4271496937514025</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.209916214428546</v>
+        <v>-0.353943512293007</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.493289148705515</v>
+        <v>-0.7984537805076831</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5923571753291652</v>
+        <v>0.545532802420866</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.271680067966206</v>
+        <v>0.7355960286916127</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6059766136856846</v>
+        <v>0.5523299744209705</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1711131242563506</v>
+        <v>0.6481867416895525</v>
       </c>
       <c r="B50" t="n">
-        <v>1.10279101106309</v>
+        <v>0.8002794729761802</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.7542946044260692</v>
+        <v>-0.1561454450745102</v>
       </c>
       <c r="B51" t="n">
-        <v>1.478915294954644</v>
+        <v>0.9879951029531898</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4385562319037639</v>
+        <v>0.8806389818662096</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01384896658418106</v>
+        <v>0.2568116602285505</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.1001194330168089</v>
+        <v>0.4124408437989617</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.07325520202829</v>
+        <v>-0.285738907765514</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.728932387534465</v>
+        <v>-1.003266681577045</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5627448352198449</v>
+        <v>-0.03095404217871234</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.0358707485158898</v>
+        <v>0.4682835640396019</v>
       </c>
       <c r="B55" t="n">
-        <v>1.169096457892093</v>
+        <v>0.8333711111805401</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.478174920796542</v>
+        <v>1.784239359862276</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.6990908717607491</v>
+        <v>-0.09900144895429759</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.6567241862051671</v>
+        <v>1.070262973892875</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.490689483563687</v>
+        <v>-0.4940714789084354</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.576441474121306</v>
+        <v>-0.8707268874455579</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4825877617951562</v>
+        <v>0.4907492229068017</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7954584218746682</v>
+        <v>1.19084594256331</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.333287233260606</v>
+        <v>-0.4155153637070013</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4920954976537512</v>
+        <v>0.9271734480952116</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.539623419529905</v>
+        <v>-0.5184933655308944</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8094513739360918</v>
+        <v>1.203008129437278</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.527607687949047</v>
+        <v>-0.5124965694718933</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.40697824134919</v>
+        <v>-0.7234353440890187</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9415763422369685</v>
+        <v>0.7198206607795291</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5868367959705908</v>
+        <v>1.009519286897042</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.48635716149104</v>
+        <v>-0.4919093091098888</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.303694758616693</v>
+        <v>0.2355002567086701</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.756060590983589</v>
+        <v>-0.1274338240801007</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.9976488138527652</v>
+        <v>-0.3676604533888473</v>
       </c>
       <c r="B65" t="n">
-        <v>1.412308818132477</v>
+        <v>0.9547532270821093</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.3281397484413952</v>
+        <v>0.7846688177478125</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.696087062254264</v>
+        <v>-0.5965810416538461</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-1.615812182366646</v>
+        <v>-0.9049465366617049</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8538619523915144</v>
+        <v>0.6760442744810157</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.9796077481716792</v>
+        <v>-0.3519797870608469</v>
       </c>
       <c r="B68" t="n">
-        <v>1.058110569128937</v>
+        <v>0.7779804147538744</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.400232223856191</v>
+        <v>1.716494280661802</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.8199219427888113</v>
+        <v>-0.1593056664436666</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.1861038954241888</v>
+        <v>0.3377061419672306</v>
       </c>
       <c r="B70" t="n">
-        <v>1.593630393814886</v>
+        <v>1.045246968819511</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.296939233733489</v>
+        <v>1.626715609004195</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.130343277809802</v>
+        <v>-0.3142303521323223</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1214265062209287</v>
+        <v>0.6050008627535267</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.402512183818386</v>
+        <v>-0.4500640641249399</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.661619817810613</v>
+        <v>-0.9447609389464099</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3756137603794437</v>
+        <v>0.4373607741229371</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.3711119194987584</v>
+        <v>0.1769036070838585</v>
       </c>
       <c r="B74" t="n">
-        <v>1.483456710399552</v>
+        <v>0.9902616268064433</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.611223245085438</v>
+        <v>1.899880332272295</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5153020158804659</v>
+        <v>-0.007276340148856997</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.110794533794968</v>
+        <v>-0.4660027748579801</v>
       </c>
       <c r="B76" t="n">
-        <v>1.178948997347293</v>
+        <v>0.8382883040604331</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8214077969602473</v>
+        <v>1.213400236158266</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.493877136709941</v>
+        <v>-0.495662368792774</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.1906060855625515</v>
+        <v>0.3337929950083514</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.195062057288539</v>
+        <v>-0.3465301184103672</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.121832431778778</v>
+        <v>-0.4755965315853384</v>
       </c>
       <c r="B79" t="n">
-        <v>1.293407276706507</v>
+        <v>0.895411996776307</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.156459385621593</v>
+        <v>1.504615414759004</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.166862468897402</v>
+        <v>-0.3324563036458283</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.401471571454805</v>
+        <v>-0.7186491382895006</v>
       </c>
       <c r="B81" t="n">
-        <v>1.143107281391188</v>
+        <v>0.8204004659752506</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.639700282350002</v>
+        <v>-0.9257092416853685</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4271187828449958</v>
+        <v>0.4630658353305478</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5081828606754106</v>
+        <v>0.9411560240748847</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.603140789643164</v>
+        <v>-0.5501935339484461</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.1536868955664351</v>
+        <v>0.3658818698931699</v>
       </c>
       <c r="B84" t="n">
-        <v>1.301892583158495</v>
+        <v>0.8996468327451601</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.222709625582546</v>
+        <v>-0.5632754771700387</v>
       </c>
       <c r="B85" t="n">
-        <v>1.152303104380821</v>
+        <v>0.8249899056354498</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3868806032578117</v>
+        <v>0.8357243241397337</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6704026199388764</v>
+        <v>0.5844836238093934</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.766983420036069</v>
+        <v>-1.036339314571176</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1571704231393615</v>
+        <v>0.3283403507670092</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1.503620290771007</v>
+        <v>-0.8074332495911528</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6658814200342912</v>
+        <v>0.582227189102333</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2641899299710818</v>
+        <v>0.7290858614582351</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.382961658596142</v>
+        <v>-0.440306812823577</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1.704203460491047</v>
+        <v>-0.9817731589397526</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1101568189906302</v>
+        <v>0.3048768609094562</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.3017337579226671</v>
+        <v>0.2372046902546459</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.4701340089515183</v>
+        <v>0.0152660513919082</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.09485308205768751</v>
+        <v>0.417018172744818</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.260947328699897</v>
+        <v>-0.3794120560008559</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.01528696750994018</v>
+        <v>0.5127480701438423</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.273376113810128</v>
+        <v>-0.3856149982907736</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.7000368102507327</v>
+        <v>-0.1089864589482773</v>
       </c>
       <c r="B94" t="n">
-        <v>1.498229168649202</v>
+        <v>0.9976342465106303</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.5339541547175866</v>
+        <v>0.03536680434114312</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1407751349855261</v>
+        <v>0.3201578111750184</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.8446503152138635</v>
+        <v>-0.2346794838468496</v>
       </c>
       <c r="B96" t="n">
-        <v>1.398584924840908</v>
+        <v>0.9479039238456632</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-1.617470585798513</v>
+        <v>-0.9063879632000272</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.3292884455776034</v>
+        <v>0.08555907630551447</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.8008690228486396</v>
+        <v>-0.1966263084345203</v>
       </c>
       <c r="B98" t="n">
-        <v>1.501853164401212</v>
+        <v>0.9994429057085532</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.529839375033392</v>
+        <v>0.9599791125485928</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.4831412217506059</v>
+        <v>0.008774428145562032</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.724237873960957</v>
+        <v>1.9981087139492</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.3223770859912405</v>
+        <v>0.08900838887137322</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4071256327021595</v>
+        <v>0.8533205990565853</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6155135438809303</v>
+        <v>0.5570896534321867</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.5925978950820956</v>
+        <v>1.014526633716069</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.457630003982615</v>
+        <v>-0.4775721958202356</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.617780239259021</v>
+        <v>1.905579443376268</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2236644810100136</v>
+        <v>0.3615261207305249</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.4998488438289254</v>
+        <v>0.06500995344948507</v>
       </c>
       <c r="B104" t="n">
-        <v>0.153109351718505</v>
+        <v>0.3263135563993063</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.032403509343429</v>
+        <v>-0.3978680249898817</v>
       </c>
       <c r="B105" t="n">
-        <v>1.363339562866706</v>
+        <v>0.9303137133484797</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.209794611733714</v>
+        <v>1.550972536836855</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.169372077129882</v>
+        <v>-0.333708795735627</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4879818042801927</v>
+        <v>0.9235979690017508</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4322036085097689</v>
+        <v>0.4656035636662736</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.587489017947237</v>
+        <v>1.879251368169731</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.4232519972434407</v>
+        <v>0.03866386626128464</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4993273093786977</v>
+        <v>0.9334590871262084</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03442570156326364</v>
+        <v>0.2670810709922069</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.01886670650477429</v>
+        <v>0.483062885489728</v>
       </c>
       <c r="B110" t="n">
-        <v>1.259778193671556</v>
+        <v>0.8786284367196661</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1.41782943493466</v>
+        <v>-0.7328668238520278</v>
       </c>
       <c r="B111" t="n">
-        <v>0.856701133950683</v>
+        <v>0.6774612496081842</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.3098698700508265</v>
+        <v>0.7687892753770973</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8811522624538874</v>
+        <v>0.6896642877718971</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.645867863511957</v>
+        <v>1.929992228720668</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.0493588085557039</v>
+        <v>0.2252660040771661</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.8811413433284381</v>
+        <v>-0.2663962153274197</v>
       </c>
       <c r="B114" t="n">
-        <v>1.405501843785732</v>
+        <v>0.9513560109690834</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-1.66985783658546</v>
+        <v>-0.9519211381217624</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3748908374651055</v>
+        <v>0.4369999786728647</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.5473054164087405</v>
+        <v>0.02376235240146153</v>
       </c>
       <c r="B116" t="n">
-        <v>1.598748930780876</v>
+        <v>1.047801521748638</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4396217299106351</v>
+        <v>0.8815650756466018</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3783484254809763</v>
+        <v>0.4387255873091506</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.415868043045142</v>
+        <v>0.1380031423401723</v>
       </c>
       <c r="B118" t="n">
-        <v>1.311762631745059</v>
+        <v>0.9045727640600992</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.713147896476054</v>
+        <v>-0.9895473513656526</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8220024209138512</v>
+        <v>0.6601438599684917</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4345578951118095</v>
+        <v>0.87716376669822</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8117820172313964</v>
+        <v>0.6550430738771993</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.567895747428663</v>
+        <v>1.862221579425151</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.6987346004278394</v>
+        <v>-0.09882364150988596</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.2065144649308001</v>
+        <v>0.3199659853902735</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.6253386824237162</v>
+        <v>-0.06219329995539755</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.2276721965503595</v>
+        <v>0.6973459186551026</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8523454865350342</v>
+        <v>0.6752874386270723</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.394986639139687</v>
+        <v>1.711935001011211</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.887302079769953</v>
+        <v>-0.1929336596444433</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.223862308290744</v>
+        <v>-0.5642773488581537</v>
       </c>
       <c r="B125" t="n">
-        <v>1.063156764172953</v>
+        <v>0.7804988633684485</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.7102801484040528</v>
+        <v>-0.11788961192751</v>
       </c>
       <c r="B126" t="n">
-        <v>1.486738121453253</v>
+        <v>0.991899309268171</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1486841562440262</v>
+        <v>0.6286922633865675</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.35472326618169</v>
+        <v>-0.4262136317963579</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.698209305767546</v>
+        <v>-0.9765632482948302</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.09792508032449555</v>
+        <v>0.2010276108354738</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.7698915861622334</v>
+        <v>-0.1697017987097123</v>
       </c>
       <c r="B129" t="n">
-        <v>1.589638153349846</v>
+        <v>1.043254526517831</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4346576390988203</v>
+        <v>0.8772504606999043</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.232500738297869</v>
+        <v>0.1338637623472277</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.4609650457960775</v>
+        <v>0.09880639725699725</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1035209243401185</v>
+        <v>0.3015650270339785</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.518160064752063</v>
+        <v>1.818993055210824</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.7892774859633924</v>
+        <v>-0.1440116698456025</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.321372842580762</v>
+        <v>0.7787872587119277</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.456236302224003</v>
+        <v>-0.4768766289163627</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.406841356674059</v>
+        <v>1.72223870886058</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.07061375764024</v>
+        <v>-0.2844206190546076</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.5921025157722785</v>
+        <v>-0.01517372709623506</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4154805663149103</v>
+        <v>0.4572574490036928</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-0.8901292178705176</v>
+        <v>-0.2742081630351451</v>
       </c>
       <c r="B136" t="n">
-        <v>1.364669605951317</v>
+        <v>0.9309775095621698</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1.696149509943176</v>
+        <v>-0.9747729454603578</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.4743053519943546</v>
+        <v>0.01318422280313792</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.2567114923938494</v>
+        <v>0.7225858638208281</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.604858301856965</v>
+        <v>-0.5510507077630991</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.092575595378875</v>
+        <v>-0.4501675077399928</v>
       </c>
       <c r="B139" t="n">
-        <v>1.388681850112749</v>
+        <v>0.942961509885916</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.4344471400194148</v>
+        <v>0.8770675022270037</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.492537390465826</v>
+        <v>-0.4949937299385601</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.613781794468148</v>
+        <v>1.902104134339378</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.1566295253316824</v>
+        <v>0.1717294709680888</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.233309883477219</v>
+        <v>1.571411192531609</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.157896842644531</v>
+        <v>-0.3279817502806925</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.1292986323591017</v>
+        <v>0.6118430407848409</v>
       </c>
       <c r="B143" t="n">
-        <v>1.052192196195151</v>
+        <v>0.7750266807056236</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.4746002292820963</v>
+        <v>0.0869551703757889</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.4483199638055672</v>
+        <v>0.02615297734242683</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.644427444576892</v>
+        <v>1.9287402667195</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5039132574597011</v>
+        <v>0.5013923242025325</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.42702143697484</v>
+        <v>1.739778532242551</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.6614436051306475</v>
+        <v>-0.08021249893154508</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.5355864168512092</v>
+        <v>0.9649742412572445</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3541299814649278</v>
+        <v>0.4266386770238093</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-1.745548342313811</v>
+        <v>-1.017708691113612</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1549833007683002</v>
+        <v>0.1725510666326963</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-1.441268995954698</v>
+        <v>-0.7532396744212355</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8499157955088484</v>
+        <v>0.6740748315151066</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.466323249926178</v>
+        <v>1.773938300067217</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1671360186613476</v>
+        <v>0.1664859036189622</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2528994705961846</v>
+        <v>0.7192725871607407</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.450411670230548</v>
+        <v>-0.4739696789775737</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.6052717671213529</v>
+        <v>1.025542322148473</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.147687352479664</v>
+        <v>0.1761923192397093</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.6829190865622072</v>
+        <v>-0.09410832934110641</v>
       </c>
       <c r="B153" t="n">
-        <v>1.434115746171895</v>
+        <v>0.965636601036137</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.4240447138594529</v>
+        <v>0.8680260754898328</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.578543341852087</v>
+        <v>-0.5379174709403478</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.4571708921994096</v>
+        <v>0.8968181966678671</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.546632001755142</v>
+        <v>-0.5219911998479029</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.110672918753446</v>
+        <v>1.464819411463579</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.338232972071394</v>
+        <v>-0.4179836767522618</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-1.604126345269696</v>
+        <v>-0.8947896138102601</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6511471220815529</v>
+        <v>0.57487361439067</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.5947618426934349</v>
+        <v>-0.01748512149193522</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3345954536700333</v>
+        <v>0.4168894096981736</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.7108704772329781</v>
+        <v>-0.1184027051978197</v>
       </c>
       <c r="B159" t="n">
-        <v>0.2070591996668664</v>
+        <v>0.3532387780042757</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.4275458614171345</v>
+        <v>0.1278531890853495</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.5830351487302646</v>
+        <v>-0.04108050607950546</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-1.084174956001654</v>
+        <v>-0.4428659643974521</v>
       </c>
       <c r="B161" t="n">
-        <v>1.356591739884911</v>
+        <v>0.9269460184235591</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.7618373197157939</v>
+        <v>1.161623650828868</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.457958715805827</v>
+        <v>-0.4777362488995442</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.329045829600687</v>
+        <v>0.7854563519531691</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.331769873658145</v>
+        <v>-0.4147580818034488</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.5075212460894314</v>
+        <v>0.9405809717058135</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.441026243265661</v>
+        <v>-0.4692856120061765</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.672712222988551</v>
+        <v>1.953324411596244</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4474013193986461</v>
+        <v>0.4731884179176321</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.270394400912895</v>
+        <v>0.7344785716395601</v>
       </c>
       <c r="B166" t="n">
-        <v>1.017399210670752</v>
+        <v>0.7576622416725494</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.3416449052685752</v>
+        <v>0.2025153101835468</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8654383601571662</v>
+        <v>-0.1820219422240965</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.5591179591635803</v>
+        <v>0.9854270387641214</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.3889822233014978</v>
+        <v>0.05576718152219535</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.2852386084006711</v>
+        <v>0.2515417000664371</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.77428692451095</v>
+        <v>-0.1365301994719276</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.454239621646677</v>
+        <v>0.8942704383332425</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.2375642400441383</v>
+        <v>0.1313366763256703</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.8450798773529887</v>
+        <v>1.23397518447284</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.391635571597904</v>
+        <v>-0.4446357783097858</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.2448595391476244</v>
+        <v>0.2866377815720913</v>
       </c>
       <c r="B172" t="n">
-        <v>1.448587045769248</v>
+        <v>0.972858918862567</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.9147194734580886</v>
+        <v>-0.295581157269804</v>
       </c>
       <c r="B173" t="n">
-        <v>1.488372022591197</v>
+        <v>0.99271475457326</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.2177478271076482</v>
+        <v>0.31020233798992</v>
       </c>
       <c r="B174" t="n">
-        <v>1.311678395511996</v>
+        <v>0.9045307235478711</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.101072964174616</v>
+        <v>1.456475465092804</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.507923508992048</v>
+        <v>-0.502672614434312</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.3795777865088135</v>
+        <v>0.169545370153261</v>
       </c>
       <c r="B176" t="n">
-        <v>1.547774724592928</v>
+        <v>1.022361379654789</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.3540200393942846</v>
+        <v>0.1917592743473189</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.8746665234717954</v>
+        <v>-0.1866275222526272</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.3808053029568054</v>
+        <v>0.168478455583282</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.4677286979203564</v>
+        <v>0.01646649096691696</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.6119001638222563</v>
+        <v>-0.03238115367726872</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4457688120624245</v>
+        <v>0.4723736682293368</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-0.3095763364789327</v>
+        <v>0.230388193953052</v>
       </c>
       <c r="B180" t="n">
-        <v>1.231816926920287</v>
+        <v>0.8646735632165159</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.8675516677952225</v>
+        <v>-0.2545845423747764</v>
       </c>
       <c r="B181" t="n">
-        <v>1.41376286372511</v>
+        <v>0.9554789103100364</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-1.410850451822251</v>
+        <v>-0.7268009346507507</v>
       </c>
       <c r="B182" t="n">
-        <v>0.747100943731361</v>
+        <v>0.622762125851123</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.2641762912181126</v>
+        <v>0.2698483330377071</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.027454313829933</v>
+        <v>-0.2628806586444863</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1.549583166313312</v>
+        <v>-0.8473825811658339</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7485074832145896</v>
+        <v>0.6234640997902955</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.656023867004749</v>
+        <v>1.938819473452859</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.4599026870242766</v>
+        <v>0.02037228654694428</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.496741291703828</v>
+        <v>0.9312114105756788</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.3068314338701012</v>
+        <v>0.09676689319109025</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1528779033374195</v>
+        <v>0.6323373223868495</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9863075212570923</v>
+        <v>0.7421450408022715</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-1.578594273721363</v>
+        <v>-0.8725980259246404</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7033684997262014</v>
+        <v>0.6009361932313888</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.243599256153086</v>
+        <v>1.580354357115499</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.204456591463342</v>
+        <v>-0.3512187305965247</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-1.592552435641088</v>
+        <v>-0.8847299744183973</v>
       </c>
       <c r="B190" t="n">
-        <v>0.03534759453992675</v>
+        <v>0.267541168168319</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.5037074547105416</v>
+        <v>0.0616561831792705</v>
       </c>
       <c r="B191" t="n">
-        <v>1.500924912858392</v>
+        <v>0.998979635107318</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-1.703252957431128</v>
+        <v>-0.9809470147645798</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.09936710304534747</v>
+        <v>0.2003079279671272</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.616955452175364</v>
+        <v>1.904862567151821</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.5963359310986545</v>
+        <v>-0.04771864365370496</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.212685896425749</v>
+        <v>1.553485540853163</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.324846735176959</v>
+        <v>-0.4113028906417195</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1.669177237312966</v>
+        <v>-0.9513295849239792</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.2808364234622109</v>
+        <v>0.1097404499752701</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.357064121165551</v>
+        <v>1.678974068371103</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.5674260911807976</v>
+        <v>-0.03329035745913501</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.761711085670612</v>
+        <v>2.03067912522339</v>
       </c>
       <c r="B197" t="n">
-        <v>0.2284261091130142</v>
+        <v>0.363902548037539</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-1.653318202808109</v>
+        <v>-0.9375454641435962</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000160135494012726</v>
+        <v>0.2499798557910558</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.4358768135709864</v>
+        <v>0.1206122154517329</v>
       </c>
       <c r="B199" t="n">
-        <v>0.04487243154947848</v>
+        <v>0.2722948117277757</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.04638022414910065</v>
+        <v>0.539773246540197</v>
       </c>
       <c r="B200" t="n">
-        <v>1.242303242287983</v>
+        <v>0.869907060174006</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.2307047129273831</v>
+        <v>0.29894066383049</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.167197744234867</v>
+        <v>-0.3326236324354952</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.59011299468491</v>
+        <v>1.881532037416395</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.3609487707486742</v>
+        <v>0.06975808142351936</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.3296076053545017</v>
+        <v>0.2129777122821403</v>
       </c>
       <c r="B203" t="n">
-        <v>1.426586787981975</v>
+        <v>0.9618790581434826</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.720796161148555</v>
+        <v>1.995117296969623</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3052666154079972</v>
+        <v>0.4022520103420626</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.4141850875603694</v>
+        <v>0.139465908668287</v>
       </c>
       <c r="B205" t="n">
-        <v>1.604094190526747</v>
+        <v>1.050469227194842</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.320820802614154</v>
+        <v>1.647472637420729</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.006087237388693</v>
+        <v>-0.2522168052675247</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.171493569598931</v>
+        <v>0.6485174115390226</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.552209983328447</v>
+        <v>-0.5247750518082165</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.5246339782742636</v>
+        <v>0.04346757729487468</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.4796860415916235</v>
+        <v>0.0104988350716898</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.3314507736345787</v>
+        <v>0.7875466455976575</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.547645084863813</v>
+        <v>-0.5224968080792979</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-1.676613857532374</v>
+        <v>-0.9577932363695171</v>
       </c>
       <c r="B210" t="n">
-        <v>0.445990835753852</v>
+        <v>0.472484475531314</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.3328438483109918</v>
+        <v>0.7887574576171338</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8024517634719409</v>
+        <v>0.650386542679106</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.2167771984649231</v>
+        <v>0.3110459746211489</v>
       </c>
       <c r="B212" t="n">
-        <v>1.346412551990012</v>
+        <v>0.9218658022551812</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.1251710619100421</v>
+        <v>0.6082555002203789</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.440422575404873</v>
+        <v>-0.4689843342167915</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.9362261744735871</v>
+        <v>1.313196373367424</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.381900042762886</v>
+        <v>-0.439776982941626</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1158503820919785</v>
+        <v>0.6001542897508437</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.394154714840015</v>
+        <v>-0.4458930291200834</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1001888801277156</v>
+        <v>0.5865418573791574</v>
       </c>
       <c r="B216" t="n">
-        <v>1.111378758226833</v>
+        <v>0.8045654349253695</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-1.737417266915367</v>
+        <v>-1.010641443398613</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.1429114853458534</v>
+        <v>0.1785758529441383</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.5985535015040778</v>
+        <v>1.019703039519075</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.3166452516680803</v>
+        <v>0.09186902546671225</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.379381830723924</v>
+        <v>1.698371844698527</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.809261699929248</v>
+        <v>-0.1539853659743999</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.5243905761876319</v>
+        <v>0.9552432062502006</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1147671346892365</v>
+        <v>0.3071777714138316</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.094080406525027</v>
+        <v>1.450397777376305</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.070191419843346</v>
+        <v>-0.2842098392432459</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-1.764573895619593</v>
+        <v>-1.034245039817576</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.2894005270308952</v>
+        <v>0.1054662880414784</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.1900742309848054</v>
+        <v>0.6646670756717195</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8439400559222587</v>
+        <v>0.6710924669906223</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.728863700011309</v>
+        <v>2.00212932093934</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4853667688985765</v>
+        <v>0.492136166243009</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.6061981182283784</v>
+        <v>1.026347474286855</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.4216511206137522</v>
+        <v>0.03946282973673018</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-1.464542363809941</v>
+        <v>-0.7734680756763498</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5680549902700727</v>
+        <v>0.5334040987621022</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7262429480580398</v>
+        <v>1.130686261930315</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.422007081570726</v>
+        <v>-0.4597935529392618</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.611836110021061</v>
+        <v>1.900413013142124</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.6452854625923348</v>
+        <v>-0.07214831367220599</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.736937439437787</v>
+        <v>2.009146734223221</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1717797199250096</v>
+        <v>0.3356315400549355</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-0.712102305339019</v>
+        <v>-0.1194733673108968</v>
       </c>
       <c r="B230" t="n">
-        <v>1.642903963473437</v>
+        <v>1.06983835939385</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-1.167204089758949</v>
+        <v>-0.5150319974337398</v>
       </c>
       <c r="B231" t="n">
-        <v>1.351607379474332</v>
+        <v>0.9244584301593188</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-1.635943154339756</v>
+        <v>-0.9224436767945976</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1760856505963717</v>
+        <v>0.3377805384664421</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1.629515941011703</v>
+        <v>-0.9168573666842282</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8003240723544514</v>
+        <v>0.6493246572980728</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-1.568762536540305</v>
+        <v>-0.8640526221837525</v>
       </c>
       <c r="B234" t="n">
-        <v>0.657022355449456</v>
+        <v>0.5778058183991617</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.1832475575875101</v>
+        <v>0.6587335687733187</v>
       </c>
       <c r="B235" t="n">
-        <v>1.04003161549586</v>
+        <v>0.768957593532534</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-0.6106851031515441</v>
+        <v>-0.0313250652353488</v>
       </c>
       <c r="B236" t="n">
-        <v>1.618732092771009</v>
+        <v>1.057774692858729</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.6493610140269507</v>
+        <v>1.063863160928208</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.672565580486938</v>
+        <v>-0.5848419704025485</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.53501176410542</v>
+        <v>1.833639965725473</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.4443561842563222</v>
+        <v>0.02813121540639346</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-1.52721823079533</v>
+        <v>-0.827943757678129</v>
       </c>
       <c r="B239" t="n">
-        <v>0.296718037344269</v>
+        <v>0.3979855968575692</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.4378782961578556</v>
+        <v>0.1188725964535657</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.1674285072620236</v>
+        <v>0.1663399287795583</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.5027059633766982</v>
+        <v>0.06252664458737052</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4205083449238017</v>
+        <v>0.04003316477689808</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-1.392270623766583</v>
+        <v>-0.7106519948196628</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7857592208714238</v>
+        <v>0.6420556497153387</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.01310899284398329</v>
+        <v>0.5108550503737568</v>
       </c>
       <c r="B243" t="n">
-        <v>0.9902145707928217</v>
+        <v>0.7440949661231325</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.2808543779539204</v>
+        <v>0.7435700195993566</v>
       </c>
       <c r="B244" t="n">
-        <v>0.9387084773199147</v>
+        <v>0.7183893703985311</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.060695395902518</v>
+        <v>1.421380688187546</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.294298159886372</v>
+        <v>-0.3960567464783022</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.4388596878119272</v>
+        <v>0.880902735179084</v>
       </c>
       <c r="B246" t="n">
-        <v>0.4329902978836348</v>
+        <v>0.4659961835999922</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.007038848674242051</v>
+        <v>0.5055790923471553</v>
       </c>
       <c r="B247" t="n">
-        <v>1.205613808480346</v>
+        <v>0.8515961441399699</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1.520740862051953</v>
+        <v>1.821236194393128</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.1042246741045836</v>
+        <v>0.1978836175713499</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.679589946990089</v>
+        <v>1.959302289902915</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.2403928982066003</v>
+        <v>0.1299249532019668</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.709354818763158</v>
+        <v>1.985172880411243</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.02405878613701795</v>
+        <v>0.2378927071382357</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.3193226753328374</v>
+        <v>0.7770053247009558</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8155894602609134</v>
+        <v>0.6569432877094267</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.1439780138211831</v>
+        <v>0.6246018482010601</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.48145229428622</v>
+        <v>-0.4894613942138332</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.5246243614470868</v>
+        <v>0.9554464042602697</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2316430973466073</v>
+        <v>0.3655080784400154</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.4482966014787961</v>
+        <v>0.8891049720642066</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3736211502861579</v>
+        <v>0.4363663048079285</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-0.9459867172460578</v>
+        <v>-0.3227575572398684</v>
       </c>
       <c r="B255" t="n">
-        <v>1.37981252846418</v>
+        <v>0.9385350201004014</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1.707421629723856</v>
+        <v>1.983492619787502</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.1374221099903186</v>
+        <v>0.1813154834258054</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.134312358800266</v>
+        <v>0.6162007972928834</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.365470547057179</v>
+        <v>-0.4315773710880861</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.362085290915244</v>
+        <v>1.683338294343836</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.041200027867075</v>
+        <v>-0.2697408521509231</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.7147818813390042</v>
+        <v>1.120724701667688</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.611495650844572</v>
+        <v>-0.5543632674672875</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.4752431786950023</v>
+        <v>0.9125259990411226</v>
       </c>
       <c r="B260" t="n">
-        <v>-1.382605772595635</v>
+        <v>-0.4401291976903717</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-0.5739413610464292</v>
+        <v>0.0006113164494903831</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.3073867448689771</v>
+        <v>0.09648974928294216</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.5567466975700772</v>
+        <v>0.9833660207244217</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.3449004621430393</v>
+        <v>0.07776745090321185</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.4935928672142165</v>
+        <v>0.9284749095976759</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.591724029316241</v>
+        <v>-0.544495671702246</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.3367212967398294</v>
+        <v>0.7921276008277077</v>
       </c>
       <c r="B264" t="n">
-        <v>0.7137121077364852</v>
+        <v>0.6060984679821612</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.1320517425849246</v>
+        <v>0.3846863918019829</v>
       </c>
       <c r="B265" t="n">
-        <v>1.25300725547313</v>
+        <v>0.875249205481783</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.1372605138239172</v>
+        <v>0.6187632310219261</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.358068418449621</v>
+        <v>-0.4278831261423405</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.3567016065206219</v>
+        <v>0.809493790627192</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.468084987111739</v>
+        <v>-0.4827900555238872</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-0.1473217915120615</v>
+        <v>0.3714141967847169</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.012587401602053</v>
+        <v>-0.2554608989687881</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1.283240259616591</v>
+        <v>1.61480893752701</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.026010631525752</v>
+        <v>-0.2621601475133993</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.1684470340825457</v>
+        <v>0.6458694689100611</v>
       </c>
       <c r="B270" t="n">
-        <v>1.199563053825469</v>
+        <v>0.8485763411904634</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-0.2309913545862144</v>
+        <v>0.2986915248778754</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.8148555353578084</v>
+        <v>-0.1567771302566623</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.3335184127439867</v>
+        <v>0.7893437655424809</v>
       </c>
       <c r="B272" t="n">
-        <v>0.6778815839656503</v>
+        <v>0.5882162156785907</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-1.654751683821117</v>
+        <v>-0.9387913959444028</v>
       </c>
       <c r="B273" t="n">
-        <v>0.09569422351319425</v>
+        <v>0.2976588871241413</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.8650533637958041</v>
+        <v>1.251335443664457</v>
       </c>
       <c r="B274" t="n">
-        <v>-1.264876688098749</v>
+        <v>-0.3813731156998734</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-1.260781511931547</v>
+        <v>-0.5963662356024595</v>
       </c>
       <c r="B275" t="n">
-        <v>1.112738290601425</v>
+        <v>0.8052439486164562</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.5729781719424971</v>
+        <v>0.9974738532740389</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.555618668540936</v>
+        <v>-0.5264762540954906</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-1.586736178928235</v>
+        <v>-0.8796746865321692</v>
       </c>
       <c r="B277" t="n">
-        <v>0.234199465546494</v>
+        <v>0.3667839074349687</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-1.618946439462618</v>
+        <v>-0.9076707238342863</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1931338228814364</v>
+        <v>0.3462889186415713</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.1545068444630998</v>
+        <v>0.6337531413141388</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.35185934129226</v>
+        <v>-0.4247843077993435</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.5188169145121003</v>
+        <v>0.9503987735263179</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.454886290940838</v>
+        <v>-0.4762028669994942</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-0.4707061578474223</v>
+        <v>0.09033976172443303</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.502443472751816</v>
+        <v>-0.0008589147728420322</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-0.3675499958830368</v>
+        <v>0.1799995071094602</v>
       </c>
       <c r="B282" t="n">
-        <v>1.30310618598184</v>
+        <v>0.9002525161011214</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.5486095548820117</v>
+        <v>0.976293499532469</v>
       </c>
       <c r="B283" t="n">
-        <v>0.001682427794273471</v>
+        <v>0.2507395994991621</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.9698113556561349</v>
+        <v>1.342387443839558</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.507846805923898</v>
+        <v>-0.5026343335644623</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.3791296122585073</v>
+        <v>0.8289874325547286</v>
       </c>
       <c r="B285" t="n">
-        <v>0.7871397934950217</v>
+        <v>0.6427446641471811</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.1107227262160661</v>
+        <v>0.403224830422888</v>
       </c>
       <c r="B286" t="n">
-        <v>-1.145714119189743</v>
+        <v>-0.321901612129308</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.4202964947897939</v>
+        <v>0.1341540862264671</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.1016514946472164</v>
+        <v>0.1991678367073386</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-1.017474393499774</v>
+        <v>-0.3848921571417952</v>
       </c>
       <c r="B288" t="n">
-        <v>1.33675568265416</v>
+        <v>0.9170462641699779</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.4870243158624412</v>
+        <v>0.07615658676989809</v>
       </c>
       <c r="B289" t="n">
-        <v>1.381999935018034</v>
+        <v>0.9396267081855849</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.706308602812489</v>
+        <v>-0.1144376827383687</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2964763241405363</v>
+        <v>0.3978649629387937</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-1.722253721642475</v>
+        <v>-0.9974618176505043</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.2777830354779092</v>
+        <v>0.1112643309730806</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.4971499437961887</v>
+        <v>0.9315665967502552</v>
       </c>
       <c r="B292" t="n">
-        <v>0.4425318654224274</v>
+        <v>0.4707581770107369</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.9744724636078345</v>
+        <v>1.346438716630279</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.57141873276954</v>
+        <v>-0.5343617300867319</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.013204552615449</v>
+        <v>1.38010330023365</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.442030673747115</v>
+        <v>-0.4697869018953678</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-1.426935603729322</v>
+        <v>-0.7407815888065867</v>
       </c>
       <c r="B295" t="n">
-        <v>0.9216421136636681</v>
+        <v>0.7098719112969731</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.7540058589024987</v>
+        <v>-0.1558944775158942</v>
       </c>
       <c r="B296" t="n">
-        <v>1.432605911630998</v>
+        <v>0.9648830747307537</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.08973770428769247</v>
+        <v>0.4214642810496649</v>
       </c>
       <c r="B297" t="n">
-        <v>1.30156661541892</v>
+        <v>0.8994841491796287</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-0.3005838817280881</v>
+        <v>0.2382041226188111</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.083509679031869</v>
+        <v>-0.2908566991266447</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-0.9692999108691788</v>
+        <v>-0.3430205736661923</v>
       </c>
       <c r="B299" t="n">
-        <v>1.43730799495099</v>
+        <v>0.9672297845030782</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.7410763936173393</v>
+        <v>1.143578976497271</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.430163723307734</v>
+        <v>-0.4638643593395228</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-1.298116869571849</v>
+        <v>-0.628816828917904</v>
       </c>
       <c r="B301" t="n">
-        <v>1.100144844202635</v>
+        <v>0.7989588273797424</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1.647389723036526</v>
+        <v>1.931314976047499</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.3414079899366045</v>
+        <v>0.07951046949702625</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-1.246252548605679</v>
+        <v>-0.5837381663945769</v>
       </c>
       <c r="B303" t="n">
-        <v>0.9303585917178191</v>
+        <v>0.7142221200954764</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.4358177086514074</v>
+        <v>0.878258752776046</v>
       </c>
       <c r="B304" t="n">
-        <v>0.2285277065060646</v>
+        <v>0.3639532531354475</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-0.2785325013561937</v>
+        <v>0.257370414887566</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.9841835933183902</v>
+        <v>-0.2412851623996194</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.6614922758043656</v>
+        <v>1.074407231407853</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.3251123105775056</v>
+        <v>0.08764329645822982</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.666327034982008</v>
+        <v>1.078609435799821</v>
       </c>
       <c r="B307" t="n">
-        <v>-1.461720780502062</v>
+        <v>-0.4796138153708217</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-1.137889153093889</v>
+        <v>-0.489552474860237</v>
       </c>
       <c r="B308" t="n">
-        <v>1.195365436119297</v>
+        <v>0.846481399476081</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.1308433060842479</v>
+        <v>0.6131856174207123</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.395289272158872</v>
+        <v>-0.4464592625460422</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-0.383993718399736</v>
+        <v>0.1657071958606343</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.638768197256724</v>
+        <v>-0.06889568516456557</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1.74049401646188</v>
+        <v>2.012237987177481</v>
       </c>
       <c r="B311" t="n">
-        <v>0.1841561802183343</v>
+        <v>0.341808368141677</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.4904744246519249</v>
+        <v>0.9257644678673076</v>
       </c>
       <c r="B312" t="n">
-        <v>0.09267259512839338</v>
+        <v>0.2961508566669193</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.03228140280926139</v>
+        <v>0.5275190417744612</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.303593886903338</v>
+        <v>-0.4006960461135986</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1.589575167411177</v>
+        <v>1.881064576670418</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.4474413065946127</v>
+        <v>0.02659149646749259</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.3196407764972123</v>
+        <v>0.2216405330058237</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.7844177582064228</v>
+        <v>-0.1415862830878589</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.09267832943827996</v>
+        <v>0.4189083920241939</v>
       </c>
       <c r="B316" t="n">
-        <v>1.235724641746789</v>
+        <v>0.866623820569851</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.8264142168594331</v>
+        <v>1.217751642074342</v>
       </c>
       <c r="B317" t="n">
-        <v>-1.617210641656421</v>
+        <v>-0.5572154978243903</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.504137067940632</v>
+        <v>0.06128277831338159</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.1463645490519311</v>
+        <v>0.1768525022946387</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.4331499851188008</v>
+        <v>0.1229822798286533</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.09586734702861872</v>
+        <v>0.2020545817557337</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-1.086945310102458</v>
+        <v>-0.4452738597531386</v>
       </c>
       <c r="B320" t="n">
-        <v>1.232558584953472</v>
+        <v>0.8650437089659112</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-1.657855533174073</v>
+        <v>-0.9414891537651675</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.1948155331602039</v>
+        <v>0.1526716466721582</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.4066623142458152</v>
+        <v>0.8529178987812266</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4754717625709444</v>
+        <v>0.4871977790503503</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.675872889210382</v>
+        <v>1.956071552661789</v>
       </c>
       <c r="B323" t="n">
-        <v>0.2950103097480259</v>
+        <v>0.3971333063374221</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-0.1916556857046419</v>
+        <v>0.332880719098664</v>
       </c>
       <c r="B324" t="n">
-        <v>1.296539047543627</v>
+        <v>0.8969749969887665</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.001280657343128583</v>
+        <v>0.5005742728696321</v>
       </c>
       <c r="B325" t="n">
-        <v>1.053105001370392</v>
+        <v>0.7754822423533418</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.196508986302026</v>
+        <v>0.6702599410165559</v>
       </c>
       <c r="B326" t="n">
-        <v>0.8772574429319728</v>
+        <v>0.6877204661908003</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.1739556374307314</v>
+        <v>0.6506573552003242</v>
       </c>
       <c r="B327" t="n">
-        <v>0.9044941681169104</v>
+        <v>0.7013137364090971</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-1.572406285407383</v>
+        <v>-0.8672196418697117</v>
       </c>
       <c r="B328" t="n">
-        <v>0.6186389259723777</v>
+        <v>0.5586494651575686</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.5556885749489889</v>
+        <v>0.9824463373726342</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.489955588487378</v>
+        <v>0.005373522647909121</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.01905825402491125</v>
+        <v>0.5160259411141004</v>
       </c>
       <c r="B330" t="n">
-        <v>-1.152513977402102</v>
+        <v>-0.3252952767310209</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>-0.4632222936320187</v>
+        <v>0.09684447600685137</v>
       </c>
       <c r="B331" t="n">
-        <v>0.2807484877390259</v>
+        <v>0.3900155343197788</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.635528597902959</v>
+        <v>1.921005698935942</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.5063392733114974</v>
+        <v>-0.002803225969021751</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.313922273413066</v>
+        <v>1.641476675958783</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.129138827470586</v>
+        <v>-0.3136292365865174</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1.022388576632359</v>
+        <v>1.388085734237451</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.260942013988485</v>
+        <v>-0.3794094035414337</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-1.698087194304844</v>
+        <v>-0.9764571132618287</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3229533444355082</v>
+        <v>0.4110790806053301</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-0.5730688475102591</v>
+        <v>0.001369674845230189</v>
       </c>
       <c r="B336" t="n">
-        <v>0.2156731277484327</v>
+        <v>0.3575378062926861</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-1.725668864538126</v>
+        <v>-1.000430140983271</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.1478122208598667</v>
+        <v>0.1761300000870839</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-0.4358688342245863</v>
+        <v>0.1206191508218838</v>
       </c>
       <c r="B338" t="n">
-        <v>1.436754166631339</v>
+        <v>0.9669533805685945</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-1.629515740585817</v>
+        <v>-0.9168571924810248</v>
       </c>
       <c r="B339" t="n">
-        <v>7.781351741684979e-05</v>
+        <v>0.2499387706435143</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1.293630253933615</v>
+        <v>1.623839558939019</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.127454661072844</v>
+        <v>-0.3127887049593984</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.8313568723512533</v>
+        <v>1.222047626187007</v>
       </c>
       <c r="B341" t="n">
-        <v>-1.442636721753533</v>
+        <v>-0.4700893675648109</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1.705973108049734</v>
+        <v>1.982233615167581</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1018973508257776</v>
+        <v>0.3007547360261626</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-0.5415225282492614</v>
+        <v>0.0287886375025684</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3089305303043088</v>
+        <v>0.4040805923358314</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1.68766403875052</v>
+        <v>1.966320009423204</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.03829347797865838</v>
+        <v>0.2307884752100666</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-0.246778221952121</v>
+        <v>0.2849701292627199</v>
       </c>
       <c r="B345" t="n">
-        <v>1.619482035887259</v>
+        <v>1.058148973516859</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.2257174544348498</v>
+        <v>0.6956469248477285</v>
       </c>
       <c r="B346" t="n">
-        <v>1.178949322827638</v>
+        <v>0.8382884665007502</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-0.0361796105925441</v>
+        <v>0.4680151118732497</v>
       </c>
       <c r="B347" t="n">
-        <v>-1.110872641920159</v>
+        <v>-0.304512971897625</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-1.533949999325496</v>
+        <v>-0.8337947765694094</v>
       </c>
       <c r="B348" t="n">
-        <v>0.4855014271150177</v>
+        <v>0.4922033712946726</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-1.704107686081261</v>
+        <v>-0.9816899151564216</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.6176871278029303</v>
+        <v>-0.05837457179170784</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-0.4306327502074348</v>
+        <v>0.1251701727952925</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.5809488339597149</v>
+        <v>-0.04003927075316048</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1.513860595813748</v>
+        <v>1.815256106462834</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.4434731985073685</v>
+        <v>0.02857189481270735</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-0.5051088729025517</v>
+        <v>0.06043811926645304</v>
       </c>
       <c r="B352" t="n">
-        <v>1.552956919557883</v>
+        <v>1.024947702937203</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.3310718775644965</v>
+        <v>0.7872173223219168</v>
       </c>
       <c r="B353" t="n">
-        <v>1.197046451462153</v>
+        <v>0.8473203584787284</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-0.4536520351182217</v>
+        <v>0.1051626115915405</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.4633075646476729</v>
+        <v>0.01867298454639927</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>-0.4176943036014539</v>
+        <v>0.1364158202319478</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.2996136806147662</v>
+        <v>0.1003691203201806</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-0.7581714111619429</v>
+        <v>-0.1595150305478955</v>
       </c>
       <c r="B356" t="n">
-        <v>1.506821366192018</v>
+        <v>1.001922429549356</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-0.5607475957126821</v>
+        <v>0.01207887803734765</v>
       </c>
       <c r="B357" t="n">
-        <v>1.505817992242816</v>
+        <v>1.001421666952939</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-1.749181658950594</v>
+        <v>-1.020866643468117</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.4692057269119987</v>
+        <v>0.01572933721339762</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.4615397665758433</v>
+        <v>0.098306869959742</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.6121360686207714</v>
+        <v>-0.0556041562241795</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-0.1514709687856537</v>
+        <v>0.3678078763204478</v>
       </c>
       <c r="B360" t="n">
-        <v>1.28324320815476</v>
+        <v>0.8903393263505105</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-0.3183771968136036</v>
+        <v>0.2227387924849343</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.8684314324363093</v>
+        <v>-0.1835157209363694</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.02041093799447995</v>
+        <v>0.4817206932295085</v>
       </c>
       <c r="B362" t="n">
-        <v>1.435438328921977</v>
+        <v>0.9662966739555446</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.06854061165135926</v>
+        <v>0.439888056154177</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.100281442474098</v>
+        <v>-0.2992271295274934</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.05177547814920552</v>
+        <v>0.4544597266440897</v>
       </c>
       <c r="B364" t="n">
-        <v>1.398132137961391</v>
+        <v>0.9476779475448134</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.05562391802402795</v>
+        <v>0.5478075435076359</v>
       </c>
       <c r="B365" t="n">
-        <v>1.091035173327125</v>
+        <v>0.7944123844072577</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.07186280424768876</v>
+        <v>0.5619218181803648</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.350516169523057</v>
+        <v>-0.4241139593384182</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-0.007519568188532178</v>
+        <v>0.4929254231501948</v>
       </c>
       <c r="B367" t="n">
-        <v>1.230244674975005</v>
+        <v>0.8638888857122146</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.5707026948175442</v>
+        <v>0.995496087760398</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.3650391399517749</v>
+        <v>0.06771666515585824</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.3222853084288814</v>
+        <v>0.7795803422665791</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.495616034544851</v>
+        <v>-0.4965302157160532</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-1.471201139180382</v>
+        <v>-0.7792556514538973</v>
       </c>
       <c r="B370" t="n">
-        <v>0.6624155108669167</v>
+        <v>0.5804974275563213</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1.460036249996383</v>
+        <v>1.768473858562154</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.7968501455931434</v>
+        <v>-0.1477910231973525</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-0.1240806519786529</v>
+        <v>0.3916145863042759</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.127055991111883</v>
+        <v>-0.3125897372615394</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-0.6490097373078471</v>
+        <v>-0.06463550326439009</v>
       </c>
       <c r="B373" t="n">
-        <v>0.5066148040862386</v>
+        <v>0.5027406086623016</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1.748109091478916</v>
+        <v>2.018856745321575</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.05512520776665916</v>
+        <v>0.2223881168815191</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>-0.8798582147886955</v>
+        <v>-0.2652809646630019</v>
       </c>
       <c r="B375" t="n">
-        <v>1.409961452055362</v>
+        <v>0.9535817066011837</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-0.7326427898632273</v>
+        <v>-0.1373264414991497</v>
       </c>
       <c r="B376" t="n">
-        <v>1.540607902569779</v>
+        <v>1.018784571220382</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-0.5726698255779274</v>
+        <v>0.001716490819909998</v>
       </c>
       <c r="B377" t="n">
-        <v>0.4325817293464427</v>
+        <v>0.4657922757332777</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-1.559840100371761</v>
+        <v>-0.8562975512325666</v>
       </c>
       <c r="B378" t="n">
-        <v>0.0267101812715864</v>
+        <v>0.2632304189227165</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>-0.026196901607208</v>
+        <v>0.4766917350514858</v>
       </c>
       <c r="B379" t="n">
-        <v>1.250638528911403</v>
+        <v>0.8740670244373224</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1.488613252358189</v>
+        <v>1.793311994324819</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.6855720121931388</v>
+        <v>-0.09225447368843992</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.5398458357629596</v>
+        <v>0.9686763799161794</v>
       </c>
       <c r="B381" t="n">
-        <v>0.1716727430518661</v>
+        <v>0.3355781501729333</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.01838700119895523</v>
+        <v>0.483479828644267</v>
       </c>
       <c r="B382" t="n">
-        <v>-1.055128681666254</v>
+        <v>-0.276692347001488</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1.388020577272572</v>
+        <v>1.705880342506588</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.860747287251509</v>
+        <v>-0.1796807275153769</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1.065949471527162</v>
+        <v>1.425947347839946</v>
       </c>
       <c r="B384" t="n">
-        <v>-1.265997545610196</v>
+        <v>-0.3819325118433473</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.726187538049115</v>
+        <v>-0.1317157613126441</v>
       </c>
       <c r="B385" t="n">
-        <v>1.388729901564402</v>
+        <v>0.9429854913433878</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.6147988589090662</v>
+        <v>1.03382293871737</v>
       </c>
       <c r="B386" t="n">
-        <v>-1.537151909454616</v>
+        <v>-0.5172598874210068</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1.671035232990965</v>
+        <v>1.951866830261948</v>
       </c>
       <c r="B387" t="n">
-        <v>0.2689923970129857</v>
+        <v>0.3841483194888911</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.6129424385473679</v>
+        <v>1.032209402756087</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.646567304019181</v>
+        <v>-0.5718667835973575</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.9371771854818679</v>
+        <v>1.314022959033632</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.331780360363445</v>
+        <v>-0.4147633154950133</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-1.356836359460655</v>
+        <v>-0.6798537656584031</v>
       </c>
       <c r="B390" t="n">
-        <v>1.341813773699128</v>
+        <v>0.919570649825601</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1.124624424808483</v>
+        <v>1.476945574911422</v>
       </c>
       <c r="B391" t="n">
-        <v>-1.060673516473588</v>
+        <v>-0.2794596561159329</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.5124541711619838</v>
+        <v>0.05405384168984899</v>
       </c>
       <c r="B392" t="n">
-        <v>0.05778555386052687</v>
+        <v>0.2787394764128337</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.3769662026804473</v>
+        <v>0.1718152679145196</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.4281312476206554</v>
+        <v>0.03622873617902031</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.4552806077487838</v>
+        <v>0.8951752272192084</v>
       </c>
       <c r="B394" t="n">
-        <v>0.00792134889844596</v>
+        <v>0.2538533123212363</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1.11559545990159</v>
+        <v>1.469097912888848</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.243379092084454</v>
+        <v>-0.3706441227801341</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.8959029426788893</v>
+        <v>1.278148823837012</v>
       </c>
       <c r="B396" t="n">
-        <v>-1.287449572674521</v>
+        <v>-0.3926387622694022</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-1.672598249149451</v>
+        <v>-0.9543030093358364</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.5968008757658471</v>
+        <v>-0.04795068764778984</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.02258662196084762</v>
+        <v>0.5190926757108176</v>
       </c>
       <c r="B398" t="n">
-        <v>-1.067838046593462</v>
+        <v>-0.2830353207101635</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-0.2948768618602445</v>
+        <v>0.243164465641604</v>
       </c>
       <c r="B399" t="n">
-        <v>1.456251096641197</v>
+        <v>0.9766838836394183</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>-0.3000773575817917</v>
+        <v>0.2386443757759997</v>
       </c>
       <c r="B400" t="n">
-        <v>-1.010191276807848</v>
+        <v>-0.254265044049255</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.785754528413512</v>
+        <v>2.051576848766576</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.0274928794534733</v>
+        <v>0.2361788242066989</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.0967250106662173</v>
+        <v>0.5835311826113997</v>
       </c>
       <c r="B402" t="n">
-        <v>-1.108055562479006</v>
+        <v>-0.3031070274674494</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.2879577077281696</v>
+        <v>0.7497439865909259</v>
       </c>
       <c r="B403" t="n">
-        <v>0.451582364161877</v>
+        <v>0.4752750884286973</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.5929170569092572</v>
+        <v>1.014804038067055</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.4181745385429632</v>
+        <v>0.0411979179018248</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.3571442668163475</v>
+        <v>0.8098785355483968</v>
       </c>
       <c r="B405" t="n">
-        <v>0.8012207376255079</v>
+        <v>0.6497721638629065</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.796845669292163</v>
+        <v>2.061216882364886</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4480309988012808</v>
+        <v>0.4735026775142903</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-0.2795973428283673</v>
+        <v>0.2564448917442808</v>
       </c>
       <c r="B407" t="n">
-        <v>1.524544086954016</v>
+        <v>1.010767462521767</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.04970190778344805</v>
+        <v>0.5426603383361094</v>
       </c>
       <c r="B408" t="n">
-        <v>1.206024586338719</v>
+        <v>0.8518011546318934</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.6919586745806192</v>
+        <v>-0.1019652246024499</v>
       </c>
       <c r="B409" t="n">
-        <v>1.638365787123907</v>
+        <v>1.067573452104204</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-0.4989152036236426</v>
+        <v>0.06582144101835953</v>
       </c>
       <c r="B410" t="n">
-        <v>0.171733060654455</v>
+        <v>0.3356082534054382</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.7216564281399335</v>
+        <v>1.126699818462181</v>
       </c>
       <c r="B411" t="n">
-        <v>-1.505458206138527</v>
+        <v>-0.5014422342167817</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.2510255204570838</v>
+        <v>0.7176438149271049</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.440018271164614</v>
+        <v>-0.4687825545699755</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.5054052812368105</v>
+        <v>0.06018049145950896</v>
       </c>
       <c r="B413" t="n">
-        <v>0.2138048716014726</v>
+        <v>0.3566053993872969</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.5388500036019048</v>
+        <v>0.9678108372640863</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.09674026573860907</v>
+        <v>0.2016189265944418</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-0.6301537292240846</v>
+        <v>-0.04824651736598293</v>
       </c>
       <c r="B415" t="n">
-        <v>0.05083158490882212</v>
+        <v>0.2752688984190284</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-0.4664047352912501</v>
+        <v>0.09407840848906311</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.6597914737586826</v>
+        <v>-0.07938795530441085</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.5068280188868179</v>
+        <v>0.9399784427507158</v>
       </c>
       <c r="B417" t="n">
-        <v>0.5652766176956773</v>
+        <v>0.5320174721058347</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.5322343201800572</v>
+        <v>0.9620607155083388</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.08689019480659442</v>
+        <v>0.2065348874869176</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>-1.432161121724083</v>
+        <v>-0.7453234271611091</v>
       </c>
       <c r="B419" t="n">
-        <v>0.9758645991792467</v>
+        <v>0.7369332005127761</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-1.183487537252246</v>
+        <v>-0.5291850032109759</v>
       </c>
       <c r="B420" t="n">
-        <v>1.087708566786684</v>
+        <v>0.7927521458394007</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-1.573887715055301</v>
+        <v>-0.8685072489550162</v>
       </c>
       <c r="B421" t="n">
-        <v>0.7000971284112751</v>
+        <v>0.59930352138974</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-0.3355648648103334</v>
+        <v>0.2077998697196491</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.454560880665358</v>
+        <v>0.02303826848117298</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-0.2956135451899502</v>
+        <v>0.2425241661334311</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.6296406215253636</v>
+        <v>-0.06434030625936001</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.4682095895492885</v>
+        <v>0.906412648176389</v>
       </c>
       <c r="B424" t="n">
-        <v>0.1772586781271094</v>
+        <v>0.3383659715568945</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-1.304324074839321</v>
+        <v>-0.6342119156799166</v>
       </c>
       <c r="B425" t="n">
-        <v>1.036757205607972</v>
+        <v>0.7673234052037499</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.4744902756990728</v>
+        <v>0.9118716019636318</v>
       </c>
       <c r="B426" t="n">
-        <v>0.4426352929163235</v>
+        <v>0.4708097954730514</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.3460276328220002</v>
+        <v>0.8002163442212726</v>
       </c>
       <c r="B427" t="n">
-        <v>0.8312564354527135</v>
+        <v>0.6647623417931852</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.3596772405336269</v>
+        <v>0.8120801081373097</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6129636805888063</v>
+        <v>0.5558170708983392</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1.079922002551789</v>
+        <v>1.438091785459533</v>
       </c>
       <c r="B429" t="n">
-        <v>-1.276044967498293</v>
+        <v>-0.3869469664003756</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.531246106362158</v>
+        <v>0.9612017944549421</v>
       </c>
       <c r="B430" t="n">
-        <v>0.01703652829386483</v>
+        <v>0.258402504478842</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1.486362906553745</v>
+        <v>1.79135607208021</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.53805479653688</v>
+        <v>-0.01863176902586859</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-1.612653567948224</v>
+        <v>-0.9022011789522649</v>
       </c>
       <c r="B432" t="n">
-        <v>0.6715571719014494</v>
+        <v>0.5850598361367476</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1.031737149315747</v>
+        <v>1.396211188214649</v>
       </c>
       <c r="B433" t="n">
-        <v>-1.196610588838914</v>
+        <v>-0.3473029575701005</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-1.676765925414344</v>
+        <v>-0.9579254084794434</v>
       </c>
       <c r="B434" t="n">
-        <v>0.4039500883746335</v>
+        <v>0.4515028327154257</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-0.3643763400246051</v>
+        <v>0.182757938315004</v>
       </c>
       <c r="B435" t="n">
-        <v>1.61991906683344</v>
+        <v>1.058367086366508</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-0.1234712484972467</v>
+        <v>0.3921442585985832</v>
       </c>
       <c r="B436" t="n">
-        <v>-1.059800848660267</v>
+        <v>-0.2790241261718321</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.4987814793188932</v>
+        <v>0.06593766952945655</v>
       </c>
       <c r="B437" t="n">
-        <v>1.402147103318393</v>
+        <v>0.9496817313567161</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-1.664793372536686</v>
+        <v>-0.9475192822512279</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.217017509827467</v>
+        <v>0.1415911123506045</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-1.081451631944023</v>
+        <v>-0.4404989459183002</v>
       </c>
       <c r="B439" t="n">
-        <v>1.319842899833097</v>
+        <v>0.9086054539966165</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-1.211965872683336</v>
+        <v>-0.5539373811117987</v>
       </c>
       <c r="B440" t="n">
-        <v>1.230874019159073</v>
+        <v>0.8642029780084163</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>-0.5332994249141957</v>
+        <v>0.03593587269682971</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.3694448413244131</v>
+        <v>0.06551787330945404</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1.147563479804995</v>
+        <v>1.496883403066277</v>
       </c>
       <c r="B442" t="n">
-        <v>-1.12689840554733</v>
+        <v>-0.3125110896580953</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1.163755085698675</v>
+        <v>1.510956583321891</v>
       </c>
       <c r="B443" t="n">
-        <v>-1.109432422895998</v>
+        <v>-0.3037941892159323</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1.339050629726661</v>
+        <v>1.663317368614633</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.9174843480810019</v>
+        <v>-0.2079969877856734</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.6138967196832212</v>
+        <v>1.033038830703357</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.427283590751939</v>
+        <v>-0.4624269464409598</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1.668732063832323</v>
+        <v>1.949864995796511</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.3924943530367296</v>
+        <v>0.05401435227387137</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-0.8328373785765967</v>
+        <v>-0.2244120904989614</v>
       </c>
       <c r="B447" t="n">
-        <v>1.608136403936252</v>
+        <v>1.052486609930187</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>-0.3485520895535568</v>
+        <v>0.1965118260239411</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.7336416714209768</v>
+        <v>-0.1162450181738247</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-1.319346334482706</v>
+        <v>-0.6472687408766378</v>
       </c>
       <c r="B449" t="n">
-        <v>0.6343985871041423</v>
+        <v>0.5665147768225456</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>-1.55465131188302</v>
+        <v>-0.8517876368862199</v>
       </c>
       <c r="B450" t="n">
-        <v>0.7546364604146705</v>
+        <v>0.6265229419483298</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1.740464157597313</v>
+        <v>2.012212034891708</v>
       </c>
       <c r="B451" t="n">
-        <v>0.4928871561746112</v>
+        <v>0.4958894315748453</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-1.163211536469171</v>
+        <v>-0.5115618090845336</v>
       </c>
       <c r="B452" t="n">
-        <v>1.078554081427916</v>
+        <v>0.7881833369115195</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>-0.1569059914181755</v>
+        <v>0.3630839438270888</v>
       </c>
       <c r="B453" t="n">
-        <v>1.379960971698229</v>
+        <v>0.9386091049611477</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.01902093800825391</v>
+        <v>0.5159935073312941</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.270819407706338</v>
+        <v>-0.3843390006551693</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-0.2806442756706307</v>
+        <v>0.2555349341587614</v>
       </c>
       <c r="B455" t="n">
-        <v>1.327738208818509</v>
+        <v>0.9125458347790685</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1.430130744742439</v>
+        <v>1.742481034327332</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.7841408287507815</v>
+        <v>-0.1414480734868009</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.03435426125774064</v>
+        <v>0.4696016419794562</v>
       </c>
       <c r="B457" t="n">
-        <v>-1.315313652178732</v>
+        <v>-0.4065451316847062</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.1366082702085695</v>
+        <v>0.6181963235743489</v>
       </c>
       <c r="B458" t="n">
-        <v>-1.386478282649321</v>
+        <v>-0.4420618850903949</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-1.470863946118768</v>
+        <v>-0.7789625749815459</v>
       </c>
       <c r="B459" t="n">
-        <v>0.9438959445986015</v>
+        <v>0.7209783249805878</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.4377927894041094</v>
+        <v>0.1189469159476568</v>
       </c>
       <c r="B460" t="n">
-        <v>1.532939150374092</v>
+        <v>1.01495726011285</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-1.017468432807404</v>
+        <v>-0.384886976315463</v>
       </c>
       <c r="B461" t="n">
-        <v>1.259358679793982</v>
+        <v>0.878419066266373</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.2930152493314095</v>
+        <v>0.7541398257127538</v>
       </c>
       <c r="B462" t="n">
-        <v>0.8580925822307855</v>
+        <v>0.6781556918488645</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-1.173803750422307</v>
+        <v>-0.520768192765518</v>
       </c>
       <c r="B463" t="n">
-        <v>1.515734883669188</v>
+        <v>1.006370976532886</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1.36039706706302</v>
+        <v>1.681870948934111</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.788275078291358</v>
+        <v>-0.1435113894975671</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>-0.5498940661594054</v>
+        <v>0.02151238814226634</v>
       </c>
       <c r="B465" t="n">
-        <v>0.1088620916921958</v>
+        <v>0.3042306900534844</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.674662179104556</v>
+        <v>1.955019245579436</v>
       </c>
       <c r="B466" t="n">
-        <v>0.3996882261084272</v>
+        <v>0.4493758279076032</v>
       </c>
       <c r="C466" t="n">
         <v>1</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.4382716786255589</v>
+        <v>0.8803916580613442</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.1514896773072014</v>
+        <v>0.1742946597932264</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>-0.4902671224341079</v>
+        <v>0.07333805217136488</v>
       </c>
       <c r="B468" t="n">
-        <v>0.03187373155621292</v>
+        <v>0.2658074370417491</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1.696921970486176</v>
+        <v>1.974366681443606</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.09401388825433461</v>
+        <v>0.2029796036071584</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>-0.1591857455605932</v>
+        <v>0.361102460878739</v>
       </c>
       <c r="B470" t="n">
-        <v>-1.204550455963686</v>
+        <v>-0.3512655763721608</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-1.216451818252114</v>
+        <v>-0.5578364088562258</v>
       </c>
       <c r="B471" t="n">
-        <v>1.026877430460793</v>
+        <v>0.7623926195692904</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.4225796959120592</v>
+        <v>0.866752732883376</v>
       </c>
       <c r="B472" t="n">
-        <v>0.6342154941579251</v>
+        <v>0.5664233990274512</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-0.3414857356940053</v>
+        <v>0.202653654837489</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.2574477932324675</v>
+        <v>0.121413217849895</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.3133452853723284</v>
+        <v>0.7718099854044892</v>
       </c>
       <c r="B474" t="n">
-        <v>0.8814768633926329</v>
+        <v>0.6898262891962064</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.7392717583123195</v>
+        <v>1.142010450304751</v>
       </c>
       <c r="B475" t="n">
-        <v>-1.609455438740671</v>
+        <v>-0.5533450410012692</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1.038523282130092</v>
+        <v>1.402109458649461</v>
       </c>
       <c r="B476" t="n">
-        <v>-1.256001586878592</v>
+        <v>-0.3769437414531104</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1.583704185717519</v>
+        <v>1.875961723735706</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.5513002147508841</v>
+        <v>-0.02524227552820241</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.3779788626049674</v>
+        <v>0.8279872410104377</v>
       </c>
       <c r="B478" t="n">
-        <v>-1.330321297468191</v>
+        <v>-0.4140351282380648</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-0.5260588542578576</v>
+        <v>0.04222912468611664</v>
       </c>
       <c r="B479" t="n">
-        <v>1.402328151806388</v>
+        <v>0.9497720888061973</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1.711403879083892</v>
+        <v>1.986953852319629</v>
       </c>
       <c r="B480" t="n">
-        <v>0.05176968738016825</v>
+        <v>0.275737085409163</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.4241450059670286</v>
+        <v>0.8681132458988334</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.08053308532783264</v>
+        <v>0.2097075856128984</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-1.045717032770245</v>
+        <v>-0.4094396761437701</v>
       </c>
       <c r="B482" t="n">
-        <v>1.139290441465984</v>
+        <v>0.8184955623522565</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1.401482155635797</v>
+        <v>1.717580677857802</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.5957169925331341</v>
+        <v>-0.04740974458039438</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1.715811925284012</v>
+        <v>1.99078517264429</v>
       </c>
       <c r="B484" t="n">
-        <v>0.4778104225707985</v>
+        <v>0.4883649545132918</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-1.178181670919324</v>
+        <v>-0.5245733288776386</v>
       </c>
       <c r="B485" t="n">
-        <v>1.31157757852216</v>
+        <v>0.9044804079326076</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.1532098060321368</v>
+        <v>0.3662965395101514</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.014461518576977</v>
+        <v>-0.2563962308887552</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.6940960076119846</v>
+        <v>1.102745260244967</v>
       </c>
       <c r="B487" t="n">
-        <v>-1.506152867121465</v>
+        <v>-0.5017889247380201</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>-0.4406739316903338</v>
+        <v>0.1164427273574483</v>
       </c>
       <c r="B488" t="n">
-        <v>0.2626193014181853</v>
+        <v>0.380967643032418</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1.31519608012556</v>
+        <v>1.642583824415425</v>
       </c>
       <c r="B489" t="n">
-        <v>-1.086073194314897</v>
+        <v>-0.292136095078776</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-0.6800605075430395</v>
+        <v>-0.09162375195725567</v>
       </c>
       <c r="B490" t="n">
-        <v>1.594468209883726</v>
+        <v>1.045665104999233</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1.291414532570062</v>
+        <v>1.621913731053246</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.983295099364764</v>
+        <v>-0.2408417339655123</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-0.9039576696600795</v>
+        <v>-0.2862273719986319</v>
       </c>
       <c r="B492" t="n">
-        <v>1.453969005042405</v>
+        <v>0.9755449402622447</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>-0.5196544002203928</v>
+        <v>0.04779565321329729</v>
       </c>
       <c r="B493" t="n">
-        <v>0.5249448425395029</v>
+        <v>0.511888740976857</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-0.2669583907598355</v>
+        <v>0.2674302289536021</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.7022211757997889</v>
+        <v>-0.1005637171190336</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.7381862762620987</v>
+        <v>1.141066987089472</v>
       </c>
       <c r="B495" t="n">
-        <v>-1.565309194870789</v>
+        <v>-0.5313125896705202</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1.082157172400831</v>
+        <v>1.440034517291942</v>
       </c>
       <c r="B496" t="n">
-        <v>-1.315264245774519</v>
+        <v>-0.406520473999231</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-0.8555573122816474</v>
+        <v>-0.2441594660543145</v>
       </c>
       <c r="B497" t="n">
-        <v>1.522144304027585</v>
+        <v>1.009569781906247</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-0.3503777312371165</v>
+        <v>0.1949250418183718</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.7105035819621418</v>
+        <v>-0.1046972898689915</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1.302614105803844</v>
+        <v>1.631648010280391</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.067340870469372</v>
+        <v>-0.2827871906814998</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1.112901210212169</v>
+        <v>1.466756164838542</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.258562407388352</v>
+        <v>-0.3782217925012213</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-0.4549247693169685</v>
+        <v>0.1040563953265167</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.6319912044191632</v>
+        <v>-0.0655134321850712</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
